--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_005.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_005.xlsx
@@ -31,336 +31,336 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295018AA1.06) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) RHR/LPCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295038EK2.09) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Post‑accident sample system </t>
-  </si>
-  <si>
-    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(295019AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Leak isolation</t>
-  </si>
-  <si>
-    <t>(295006AA1.07) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Control rod position</t>
-  </si>
-  <si>
-    <t>(295037EK2.25) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Rod worth minimizer</t>
-  </si>
-  <si>
-    <t>(295001AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal-hydraulic instabilities</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
-  </si>
-  <si>
-    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
-  </si>
-  <si>
-    <t>(295031EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Alternate injection systems</t>
-  </si>
-  <si>
-    <t>(700000AK2.07) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295021AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Decay heat</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(600000AA2.16) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Vital equipment and control systems to be maintained and operated during a fire</t>
-  </si>
-  <si>
-    <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
-  </si>
-  <si>
-    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295004AK2.01) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Battery charger</t>
-  </si>
-  <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
-  </si>
-  <si>
-    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
-  </si>
-  <si>
-    <t>(295014AA1.02) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(295032EK2.06) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Area temperature monitoring system</t>
-  </si>
-  <si>
-    <t>(295017AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(239002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(262002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Motor generator operation</t>
-  </si>
-  <si>
-    <t>(264000K4.06) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Governor control</t>
-  </si>
-  <si>
-    <t>(215005K2.02) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) APRM channels</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(223002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(262001A2.05) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Bus grounds /faults</t>
-  </si>
-  <si>
-    <t>(510000A3.02) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
-  </si>
-  <si>
-    <t>(263000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant systems using DC control power</t>
-  </si>
-  <si>
-    <t>(211000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Plant air systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(217000A4.12) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) </t>
-  </si>
-  <si>
-    <t>(215004K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(259002K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Turbine speed control mechanisms: TDRFP</t>
-  </si>
-  <si>
-    <t>(212000K4.08) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SCRAM reset time delay</t>
-  </si>
-  <si>
-    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (291001K1.03) VALVES (CFR: 41.3) The relationship of valve position to flow rate and back pressure</t>
-  </si>
-  <si>
-    <t>(209001A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(205000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC power</t>
-  </si>
-  <si>
-    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
-  </si>
-  <si>
-    <t>(203000K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(261000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(215003A4.01) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM recorder indication</t>
-  </si>
-  <si>
-    <t>(239002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
-  </si>
-  <si>
-    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
-  </si>
-  <si>
-    <t>(264000K4.10) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic start logic</t>
-  </si>
-  <si>
-    <t>(215005K2.03) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) OPRM channels</t>
-  </si>
-  <si>
-    <t>(271000K6.16) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.7) Hydrogen water chemistry system</t>
-  </si>
-  <si>
-    <t>(223001A4.16) Ability to manually operate and/or monitor the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool cleanup system</t>
-  </si>
-  <si>
-    <t>(226001K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Keep fill system</t>
-  </si>
-  <si>
-    <t>(234000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FH) FUEL HANDLING: (CFR: 41.5 / 45.3) FH equipment interlocks</t>
-  </si>
-  <si>
-    <t>(201001K4.13) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Motor cooling</t>
-  </si>
-  <si>
-    <t>(290002K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.5 / 45.3) Offsite radiation levels</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(241000A1.20) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.5 / 45.5) Servo valve position</t>
-  </si>
-  <si>
-    <t>(215001A2.04) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(286000A3.01) Ability to monitor automatic operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Fire water pump start</t>
-  </si>
-  <si>
-    <t>(245000K3.03) Knowledge of the effect that a loss or malfunction of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(292006K1.03) FISSION PRODUCT POISONS (CFR: 41.1) Describe the production of xenon-135</t>
-  </si>
-  <si>
-    <t>(292008K1.12) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Describe reactor power and period response prior to reaching the POAH</t>
-  </si>
-  <si>
-    <t>(293008K1.28) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Describe the factors affecting single- and two-phase flow resistance</t>
-  </si>
-  <si>
-    <t>(293007K1.02) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe thermal conductivity</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(295018AA2.03) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295024EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
-  </si>
-  <si>
-    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295002AA2.04) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Offgas system flow</t>
-  </si>
-  <si>
-    <t>(400000A2.02) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High/low surge tank level</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(262001A2.12) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
-  </si>
-  <si>
-    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202002A2.09) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow instrumentation</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295025EK2.10) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(295004AA1.03) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295024EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell spray (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295021AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Thermal stratification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AK2.05) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295026EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) LPCS</t>
+  </si>
+  <si>
+    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
+  </si>
+  <si>
+    <t>(295037EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Shutdown conditions</t>
+  </si>
+  <si>
+    <t>(600000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Whether malfunction(s) are due to common-mode electrical failures</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295019AK2.17) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) High-pressure coolant injection</t>
+  </si>
+  <si>
+    <t>(295023AA1.05) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel transfer system</t>
+  </si>
+  <si>
+    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
+  </si>
+  <si>
+    <t>(295030EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Heat capacity</t>
+  </si>
+  <si>
+    <t>(295001AA2.09) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AK2.12) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(295029EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295014AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Preconditioning interim operating management recommendations (PCIOMR)</t>
+  </si>
+  <si>
+    <t>(295020AA2.05) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012AK2.02) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell cooling</t>
+  </si>
+  <si>
+    <t>(295002AA1.10) Ability to operate and/or monitor the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.7 / 45.6) Feedwater system</t>
+  </si>
+  <si>
+    <t>(264000K4.09) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Standby readiness</t>
+  </si>
+  <si>
+    <t>(223002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Primary containment integrity</t>
+  </si>
+  <si>
+    <t>(262001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Emergency generators</t>
+  </si>
+  <si>
+    <t>(205000A2.08) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of heat exchanger cooling</t>
+  </si>
+  <si>
+    <t>(203000K2.03) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(261000A3.04) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) System temperature</t>
+  </si>
+  <si>
+    <t>(217000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Suppression pool</t>
+  </si>
+  <si>
+    <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A4.01) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM/APRM recorder </t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(259002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(239002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Discharge line vacuum breaker</t>
+  </si>
+  <si>
+    <t>(400000A2.09) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to spent fuel pool cooling system heat exchanger</t>
+  </si>
+  <si>
+    <t>(215004K2.01) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SRMS channels/detectors</t>
+  </si>
+  <si>
+    <t>(211000A3.08) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System initiation</t>
+  </si>
+  <si>
+    <t>(215003K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(510000K3.08) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment system and auxiliaries</t>
+  </si>
+  <si>
+    <t>(300000A4.02) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Instrument air compressors</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (291007K1.02) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Reason for sampling inlet and outlet of demineralizer</t>
+  </si>
+  <si>
+    <t>(209001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(264000K4.05) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Load shedding and sequencing</t>
+  </si>
+  <si>
+    <t>(223002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Secondary containment integrity</t>
+  </si>
+  <si>
+    <t>(262001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Breaker malfunctions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(205000A2.06) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Pump trips </t>
+  </si>
+  <si>
+    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(239001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.5 / 45.5) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(259001K4.04) Knowledge of (SF2 FWS) FEEDWATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dispersal of feedwater in the reactor vessel</t>
+  </si>
+  <si>
+    <t>(256000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.5 / 45.3) Air ejection operation</t>
+  </si>
+  <si>
+    <t>(219000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE: (CFR: 41.7 / 45.7) Keep fill system</t>
+  </si>
+  <si>
+    <t>(204000A2.15) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Cleanup demineralizer high differential pressure</t>
+  </si>
+  <si>
+    <t>(234000K3.02) Knowledge of the effect that a loss or malfunction of the (SF8 FH) FUEL HANDLING will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS</t>
+  </si>
+  <si>
+    <t>(286000A3.06) Ability to monitor automatic operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Fire dampers</t>
+  </si>
+  <si>
+    <t>(241000K1.39) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(226001K3.01) Knowledge of the effect that a loss or malfunction of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment/drywell/suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(216000A4.04) Ability to manually operate and/or monitor the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Analog trip units</t>
+  </si>
+  <si>
+    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(292004K1.16) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain and describe the effect of power defect and Doppler defect on reactivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
+  </si>
+  <si>
+    <t>(293006K1.05) FLUID STATICS AND DYNAMICS (CFR: 41.14) Explain operational implications of fluid/water hammer</t>
+  </si>
+  <si>
+    <t>(293010K1.01) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the brittle fracture mode of failure</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295008AA2.02) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feedflow mismatch</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295007AA2.02) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power </t>
+  </si>
+  <si>
+    <t>(203000A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Emergency generator failure</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A2.08) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/systems </t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t>(245000A2.01) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K2</t>
+    <t>K3</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K3</t>
+    <t>K4</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K4</t>
+    <t>K6</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295018</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295024</t>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295019</t>
   </si>
   <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295037</t>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295030</t>
   </si>
   <si>
     <t>295001</t>
   </si>
   <si>
-    <t>295025</t>
+    <t>295027</t>
   </si>
   <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295011</t>
+    <t>295029</t>
   </si>
   <si>
     <t>295014</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295017</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>212000</t>
   </si>
   <si>
     <t>239002</t>
   </si>
   <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
     <t>400000</t>
   </si>
   <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>262001</t>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215003</t>
   </si>
   <si>
     <t>510000</t>
   </si>
   <si>
+    <t>300000</t>
+  </si>
+  <si>
     <t>263000</t>
   </si>
   <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
     <t>209001</t>
   </si>
   <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
     <t>223001</t>
   </si>
   <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
     <t>226001</t>
   </si>
   <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>286000</t>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>268000</t>
   </si>
   <si>
     <t>245000</t>
   </si>
   <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>230000</t>
+    <t>202001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D45" t="s">
         <v>109</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
         <v>109</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2347,7 +2347,7 @@
         <v>4.6</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
